--- a/data/pca/factorExposure/factorExposure_2017-04-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01814616987975522</v>
+        <v>0.01014716561950683</v>
       </c>
       <c r="C2">
-        <v>-0.01511112074148653</v>
+        <v>-0.0413961376404</v>
       </c>
       <c r="D2">
-        <v>0.03169898233085183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02951445838684318</v>
+      </c>
+      <c r="E2">
+        <v>0.03684316882461113</v>
+      </c>
+      <c r="F2">
+        <v>0.005192146371541809</v>
+      </c>
+      <c r="G2">
+        <v>-0.1029096663437744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02330629962333915</v>
+        <v>0.04146844549412643</v>
       </c>
       <c r="C3">
-        <v>0.01181422104038836</v>
+        <v>-0.1020377810946342</v>
       </c>
       <c r="D3">
-        <v>0.1024821122964962</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01760370206569815</v>
+      </c>
+      <c r="E3">
+        <v>0.1000337753679094</v>
+      </c>
+      <c r="F3">
+        <v>0.002364198953648988</v>
+      </c>
+      <c r="G3">
+        <v>-0.1635760790609248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02637075085032399</v>
+        <v>0.05628046640606049</v>
       </c>
       <c r="C4">
-        <v>-0.003973575245413892</v>
+        <v>-0.06806064423707381</v>
       </c>
       <c r="D4">
-        <v>0.08187666313259093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02451160904544632</v>
+      </c>
+      <c r="E4">
+        <v>0.03296611009614466</v>
+      </c>
+      <c r="F4">
+        <v>0.009737996429070445</v>
+      </c>
+      <c r="G4">
+        <v>-0.1011897710764118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01204077001351342</v>
+        <v>0.03681058475613659</v>
       </c>
       <c r="C6">
-        <v>-0.009728255588947883</v>
+        <v>-0.05119861127390879</v>
       </c>
       <c r="D6">
-        <v>0.07845775361589297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01706674505627676</v>
+      </c>
+      <c r="E6">
+        <v>0.03681662559749985</v>
+      </c>
+      <c r="F6">
+        <v>0.006956941654154636</v>
+      </c>
+      <c r="G6">
+        <v>-0.08481494986730878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.005685615273472503</v>
+        <v>0.02081412965820121</v>
       </c>
       <c r="C7">
-        <v>-0.01109984834618762</v>
+        <v>-0.03974269282545587</v>
       </c>
       <c r="D7">
-        <v>0.03710743634630195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01403562632244224</v>
+      </c>
+      <c r="E7">
+        <v>0.006243399819095725</v>
+      </c>
+      <c r="F7">
+        <v>-0.004485485457427867</v>
+      </c>
+      <c r="G7">
+        <v>-0.1216519532268718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0002866489360138217</v>
+        <v>0.003561369896031368</v>
       </c>
       <c r="C8">
-        <v>-0.0007358316447930035</v>
+        <v>-0.02516050152561006</v>
       </c>
       <c r="D8">
-        <v>-0.00308950333987476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003791352829501513</v>
+      </c>
+      <c r="E8">
+        <v>0.02849968168183141</v>
+      </c>
+      <c r="F8">
+        <v>0.005850477414722433</v>
+      </c>
+      <c r="G8">
+        <v>-0.06687036333086513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01656068148289911</v>
+        <v>0.03403573204608285</v>
       </c>
       <c r="C9">
-        <v>-0.002708343142704893</v>
+        <v>-0.05027362622980464</v>
       </c>
       <c r="D9">
-        <v>0.06017612853042213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01644559148330069</v>
+      </c>
+      <c r="E9">
+        <v>0.02284574504379038</v>
+      </c>
+      <c r="F9">
+        <v>0.005289302329903454</v>
+      </c>
+      <c r="G9">
+        <v>-0.1011965541518683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1140299068129978</v>
+        <v>0.09898803879858846</v>
       </c>
       <c r="C10">
-        <v>0.1405026239701074</v>
+        <v>0.1829347603801604</v>
       </c>
       <c r="D10">
-        <v>-0.103079766783272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01566023100203264</v>
+      </c>
+      <c r="E10">
+        <v>0.01969166241719258</v>
+      </c>
+      <c r="F10">
+        <v>-0.02233537824190427</v>
+      </c>
+      <c r="G10">
+        <v>-0.05627847416175232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.001056533568619378</v>
+        <v>0.03423216925533971</v>
       </c>
       <c r="C11">
-        <v>-0.0002627156625001522</v>
+        <v>-0.05311765667375307</v>
       </c>
       <c r="D11">
-        <v>0.05255136342814127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.00253628427723136</v>
+      </c>
+      <c r="E11">
+        <v>0.01751504911887065</v>
+      </c>
+      <c r="F11">
+        <v>0.01981640428746713</v>
+      </c>
+      <c r="G11">
+        <v>-0.09146621227748289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.00488836015976395</v>
+        <v>0.03585324911282455</v>
       </c>
       <c r="C12">
-        <v>-0.00311307539731876</v>
+        <v>-0.04810688220103008</v>
       </c>
       <c r="D12">
-        <v>0.0456318721504488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006588827275231287</v>
+      </c>
+      <c r="E12">
+        <v>0.009258729037700003</v>
+      </c>
+      <c r="F12">
+        <v>0.001030814075047978</v>
+      </c>
+      <c r="G12">
+        <v>-0.08330610370190873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02087275573644435</v>
+        <v>0.01541711159733683</v>
       </c>
       <c r="C13">
-        <v>-0.008160923651198812</v>
+        <v>-0.04203006489516637</v>
       </c>
       <c r="D13">
-        <v>0.03432699422803138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02649093126278985</v>
+      </c>
+      <c r="E13">
+        <v>0.03715398402577135</v>
+      </c>
+      <c r="F13">
+        <v>0.004336955286665052</v>
+      </c>
+      <c r="G13">
+        <v>-0.1400525957009751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.005784541821083567</v>
+        <v>0.008293538764690444</v>
       </c>
       <c r="C14">
-        <v>-0.003904553961521035</v>
+        <v>-0.02917690493231919</v>
       </c>
       <c r="D14">
-        <v>0.01968981627131613</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01021348556901571</v>
+      </c>
+      <c r="E14">
+        <v>0.006875893009027926</v>
+      </c>
+      <c r="F14">
+        <v>-0.007688007157376522</v>
+      </c>
+      <c r="G14">
+        <v>-0.1050372650575135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.003754605288418692</v>
+        <v>0.03285453288908763</v>
       </c>
       <c r="C16">
-        <v>0.003256988683892294</v>
+        <v>-0.04623772610409723</v>
       </c>
       <c r="D16">
-        <v>0.04104849121192897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.001995066411252919</v>
+      </c>
+      <c r="E16">
+        <v>0.01526160902885768</v>
+      </c>
+      <c r="F16">
+        <v>0.001647850009955962</v>
+      </c>
+      <c r="G16">
+        <v>-0.09317439853714421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01203012787212421</v>
+        <v>0.02345537388285292</v>
       </c>
       <c r="C19">
-        <v>-0.005907687888603941</v>
+        <v>-0.05142897746861842</v>
       </c>
       <c r="D19">
-        <v>0.04097604718727788</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01911256086974224</v>
+      </c>
+      <c r="E19">
+        <v>0.07915486208698576</v>
+      </c>
+      <c r="F19">
+        <v>0.01946074715286543</v>
+      </c>
+      <c r="G19">
+        <v>-0.1383068268001654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.006883818614930502</v>
+        <v>0.01521245728603384</v>
       </c>
       <c r="C20">
-        <v>-0.008206596466922707</v>
+        <v>-0.04171679795105932</v>
       </c>
       <c r="D20">
-        <v>0.03423888272194919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01425754070598848</v>
+      </c>
+      <c r="E20">
+        <v>0.03844303331132671</v>
+      </c>
+      <c r="F20">
+        <v>-0.01262892666771236</v>
+      </c>
+      <c r="G20">
+        <v>-0.1110282642921064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01599240729713735</v>
+        <v>0.01246435091237576</v>
       </c>
       <c r="C21">
-        <v>-0.001190110297749415</v>
+        <v>-0.03826654322025362</v>
       </c>
       <c r="D21">
-        <v>0.02368655747071639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01921346831166006</v>
+      </c>
+      <c r="E21">
+        <v>0.04976005719894474</v>
+      </c>
+      <c r="F21">
+        <v>-0.0007932199905495182</v>
+      </c>
+      <c r="G21">
+        <v>-0.1376019656936307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001444601958864964</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0004548037195404898</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0006239526567561219</v>
+      </c>
+      <c r="E22">
+        <v>0.004017020443105585</v>
+      </c>
+      <c r="F22">
+        <v>0.001773662598751687</v>
+      </c>
+      <c r="G22">
+        <v>-0.0057478982482049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.00145015650568207</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0004664823665867854</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0006227890946782262</v>
+      </c>
+      <c r="E23">
+        <v>0.004004235651648914</v>
+      </c>
+      <c r="F23">
+        <v>0.00177959558149414</v>
+      </c>
+      <c r="G23">
+        <v>-0.005640689018312639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0005554713220336542</v>
+        <v>0.02809883083053183</v>
       </c>
       <c r="C24">
-        <v>-0.007507442355501651</v>
+        <v>-0.05078291029366783</v>
       </c>
       <c r="D24">
-        <v>0.04511382405291815</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.00731612387622067</v>
+      </c>
+      <c r="E24">
+        <v>0.01246780752728986</v>
+      </c>
+      <c r="F24">
+        <v>0.01158782463024522</v>
+      </c>
+      <c r="G24">
+        <v>-0.09179818698895126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01597627007718719</v>
+        <v>0.04229885706167675</v>
       </c>
       <c r="C25">
-        <v>0.002295614951250039</v>
+        <v>-0.05802084721122742</v>
       </c>
       <c r="D25">
-        <v>0.05707129761640155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01130135306316712</v>
+      </c>
+      <c r="E25">
+        <v>0.00415815287059188</v>
+      </c>
+      <c r="F25">
+        <v>0.005310308451597369</v>
+      </c>
+      <c r="G25">
+        <v>-0.09989819430752407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01834831069064919</v>
+        <v>0.01407357147883359</v>
       </c>
       <c r="C26">
-        <v>-0.01228971695291129</v>
+        <v>-0.01244093019299911</v>
       </c>
       <c r="D26">
-        <v>2.054409366218629e-06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02414983685767472</v>
+      </c>
+      <c r="E26">
+        <v>0.009245312043109646</v>
+      </c>
+      <c r="F26">
+        <v>-0.008245059585387265</v>
+      </c>
+      <c r="G26">
+        <v>-0.08256518066780183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1615310643413362</v>
+        <v>0.1259388553520917</v>
       </c>
       <c r="C28">
-        <v>0.1765021694204524</v>
+        <v>0.2398746433832711</v>
       </c>
       <c r="D28">
-        <v>-0.1325629083294925</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006586501612732371</v>
+      </c>
+      <c r="E28">
+        <v>0.009198844314337099</v>
+      </c>
+      <c r="F28">
+        <v>-0.01537311557707327</v>
+      </c>
+      <c r="G28">
+        <v>-0.04847886066082001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0110826501398793</v>
+        <v>0.008976054819841832</v>
       </c>
       <c r="C29">
-        <v>0.002823424738864703</v>
+        <v>-0.02337815984663373</v>
       </c>
       <c r="D29">
-        <v>0.01897989480095039</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009256355780233535</v>
+      </c>
+      <c r="E29">
+        <v>0.004232851808412274</v>
+      </c>
+      <c r="F29">
+        <v>-0.01456632067848425</v>
+      </c>
+      <c r="G29">
+        <v>-0.0962661506030313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01572928946987986</v>
+        <v>0.04142773482137319</v>
       </c>
       <c r="C30">
-        <v>-0.01896383148053183</v>
+        <v>-0.06970764677764824</v>
       </c>
       <c r="D30">
-        <v>0.0987742958280982</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02895867361830932</v>
+      </c>
+      <c r="E30">
+        <v>0.05993301220282403</v>
+      </c>
+      <c r="F30">
+        <v>0.04373403513702179</v>
+      </c>
+      <c r="G30">
+        <v>-0.1333172630717704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02298250180384769</v>
+        <v>0.05319139102650992</v>
       </c>
       <c r="C31">
-        <v>0.01884839055181325</v>
+        <v>-0.03794483397701092</v>
       </c>
       <c r="D31">
-        <v>0.03123340172380011</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003811827915441687</v>
+      </c>
+      <c r="E31">
+        <v>4.86649901046699e-05</v>
+      </c>
+      <c r="F31">
+        <v>-0.03982601432189378</v>
+      </c>
+      <c r="G31">
+        <v>-0.09930958702481758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002072383906625324</v>
+        <v>0.002763828007930296</v>
       </c>
       <c r="C32">
-        <v>0.01511669839594127</v>
+        <v>-0.02387049111324078</v>
       </c>
       <c r="D32">
-        <v>0.005376918761785771</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002916222667946437</v>
+      </c>
+      <c r="E32">
+        <v>0.03356376331680851</v>
+      </c>
+      <c r="F32">
+        <v>0.04219918843855517</v>
+      </c>
+      <c r="G32">
+        <v>-0.08665217306585551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01022625086418257</v>
+        <v>0.0280040027126887</v>
       </c>
       <c r="C33">
-        <v>-0.005390498363133494</v>
+        <v>-0.05013391664276896</v>
       </c>
       <c r="D33">
-        <v>0.04245763101907293</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01578720974017173</v>
+      </c>
+      <c r="E33">
+        <v>0.04383508479655187</v>
+      </c>
+      <c r="F33">
+        <v>0.01452644422242521</v>
+      </c>
+      <c r="G33">
+        <v>-0.1631638678316484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004996506768537053</v>
+        <v>0.03979102947216775</v>
       </c>
       <c r="C34">
-        <v>0.01431323288037474</v>
+        <v>-0.05941120438964241</v>
       </c>
       <c r="D34">
-        <v>0.05586622686310305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.00443833031703161</v>
+      </c>
+      <c r="E34">
+        <v>0.007501075401350365</v>
+      </c>
+      <c r="F34">
+        <v>0.02083524368469808</v>
+      </c>
+      <c r="G34">
+        <v>-0.09510077907973208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01634714676998194</v>
+        <v>0.01635056134491566</v>
       </c>
       <c r="C36">
-        <v>0.002827710549011167</v>
+        <v>-0.009667929649715187</v>
       </c>
       <c r="D36">
-        <v>0.004049307461240083</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01254555745990255</v>
+      </c>
+      <c r="E36">
+        <v>0.008500734037915651</v>
+      </c>
+      <c r="F36">
+        <v>-0.007658727489310816</v>
+      </c>
+      <c r="G36">
+        <v>-0.09199447153969545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01034122459548903</v>
+        <v>0.03126580129298034</v>
       </c>
       <c r="C38">
-        <v>0.0230904837811796</v>
+        <v>-0.03067215343433796</v>
       </c>
       <c r="D38">
-        <v>0.03977600890862285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007417936207251665</v>
+      </c>
+      <c r="E38">
+        <v>0.007044345739813658</v>
+      </c>
+      <c r="F38">
+        <v>-0.01832244813270166</v>
+      </c>
+      <c r="G38">
+        <v>-0.08648460390003535</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.007188334009740375</v>
+        <v>0.03635185196224003</v>
       </c>
       <c r="C39">
-        <v>-0.0221506709861247</v>
+        <v>-0.07982235378199842</v>
       </c>
       <c r="D39">
-        <v>0.09970223066739876</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01182266509582917</v>
+      </c>
+      <c r="E39">
+        <v>0.02935670945366155</v>
+      </c>
+      <c r="F39">
+        <v>0.02230878721863748</v>
+      </c>
+      <c r="G39">
+        <v>-0.09097473816907165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01702164998859669</v>
+        <v>0.01355213580975628</v>
       </c>
       <c r="C40">
-        <v>0.003785100296295234</v>
+        <v>-0.0399769443625774</v>
       </c>
       <c r="D40">
-        <v>0.03451051951434637</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01474580021080365</v>
+      </c>
+      <c r="E40">
+        <v>0.03120142630841671</v>
+      </c>
+      <c r="F40">
+        <v>-0.007707328681931678</v>
+      </c>
+      <c r="G40">
+        <v>-0.1228008682528629</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01451423438670757</v>
+        <v>0.02056727964326874</v>
       </c>
       <c r="C41">
-        <v>0.012147854259518</v>
+        <v>-0.002793219019638025</v>
       </c>
       <c r="D41">
-        <v>-0.009676004020355056</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004491834768401689</v>
+      </c>
+      <c r="E41">
+        <v>0.007619463437904869</v>
+      </c>
+      <c r="F41">
+        <v>-0.01524570055628806</v>
+      </c>
+      <c r="G41">
+        <v>-0.08583322235514503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.06186652890020716</v>
+        <v>0.01029065347123775</v>
       </c>
       <c r="C42">
-        <v>-0.07211792182436408</v>
+        <v>-0.03411133021332193</v>
       </c>
       <c r="D42">
-        <v>0.1532788786395077</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08932905508186396</v>
+      </c>
+      <c r="E42">
+        <v>0.01992292654728358</v>
+      </c>
+      <c r="F42">
+        <v>-0.0454330016847138</v>
+      </c>
+      <c r="G42">
+        <v>0.02374608809808249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01531477802863922</v>
+        <v>0.03515172943233652</v>
       </c>
       <c r="C43">
-        <v>0.01187427201723935</v>
+        <v>-0.01841995921349793</v>
       </c>
       <c r="D43">
-        <v>-0.009928931632811114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005884796090725028</v>
+      </c>
+      <c r="E43">
+        <v>0.02077011100875946</v>
+      </c>
+      <c r="F43">
+        <v>-0.007515309497453322</v>
+      </c>
+      <c r="G43">
+        <v>-0.1198600601675245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.001963839141102266</v>
+        <v>0.01348568101654945</v>
       </c>
       <c r="C44">
-        <v>-0.002119522971443829</v>
+        <v>-0.05951291409448284</v>
       </c>
       <c r="D44">
-        <v>0.0528231244329232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007066482900162</v>
+      </c>
+      <c r="E44">
+        <v>0.02538046346481334</v>
+      </c>
+      <c r="F44">
+        <v>-0.004149790249391223</v>
+      </c>
+      <c r="G44">
+        <v>-0.11079008478348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.009274121030312046</v>
+        <v>0.008262584362657673</v>
       </c>
       <c r="C46">
-        <v>-0.003858826844741271</v>
+        <v>-0.01436238409951382</v>
       </c>
       <c r="D46">
-        <v>-0.0047177416108673</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01269947275292998</v>
+      </c>
+      <c r="E46">
+        <v>0.001619525815200974</v>
+      </c>
+      <c r="F46">
+        <v>-0.0156151798042849</v>
+      </c>
+      <c r="G46">
+        <v>-0.1061293162011063</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01891330273247332</v>
+        <v>0.07764096284513684</v>
       </c>
       <c r="C47">
-        <v>0.02393476096939552</v>
+        <v>-0.06878131487319877</v>
       </c>
       <c r="D47">
-        <v>0.07278590497563252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004784760448997418</v>
+      </c>
+      <c r="E47">
+        <v>-0.005360062293174905</v>
+      </c>
+      <c r="F47">
+        <v>-0.05312685149673706</v>
+      </c>
+      <c r="G47">
+        <v>-0.08557437894333199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.009008435210118194</v>
+        <v>0.01889734316917644</v>
       </c>
       <c r="C48">
-        <v>0.008641360793209124</v>
+        <v>-0.01291830815881207</v>
       </c>
       <c r="D48">
-        <v>0.01583789495135326</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002257748999147389</v>
+      </c>
+      <c r="E48">
+        <v>0.005005878512527736</v>
+      </c>
+      <c r="F48">
+        <v>-0.01935112870688188</v>
+      </c>
+      <c r="G48">
+        <v>-0.09722248517225941</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.02694988736359291</v>
+        <v>0.07561339592067631</v>
       </c>
       <c r="C50">
-        <v>0.0308145794231472</v>
+        <v>-0.07190944047321653</v>
       </c>
       <c r="D50">
-        <v>0.06877566760118536</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002260129150845088</v>
+      </c>
+      <c r="E50">
+        <v>-0.003095482428645019</v>
+      </c>
+      <c r="F50">
+        <v>-0.05534246675402948</v>
+      </c>
+      <c r="G50">
+        <v>-0.09334480240469081</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007968539410628915</v>
+        <v>0.01440177892529117</v>
       </c>
       <c r="C51">
-        <v>0.0003555462802215775</v>
+        <v>-0.03677836962394689</v>
       </c>
       <c r="D51">
-        <v>0.01776652306851934</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01075263443581681</v>
+      </c>
+      <c r="E51">
+        <v>0.02570168223829383</v>
+      </c>
+      <c r="F51">
+        <v>0.02425675159935488</v>
+      </c>
+      <c r="G51">
+        <v>-0.1227367558750939</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.03035695239389145</v>
+        <v>0.08177149436913191</v>
       </c>
       <c r="C53">
-        <v>0.0339519148774176</v>
+        <v>-0.08519189567593224</v>
       </c>
       <c r="D53">
-        <v>0.1257576154784591</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003501697404640071</v>
+      </c>
+      <c r="E53">
+        <v>-0.024996214795061</v>
+      </c>
+      <c r="F53">
+        <v>-0.06466655765684046</v>
+      </c>
+      <c r="G53">
+        <v>-0.09248793881014609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01256211175730424</v>
+        <v>0.03175553852936282</v>
       </c>
       <c r="C54">
-        <v>0.01911723512038659</v>
+        <v>-0.01896749975860199</v>
       </c>
       <c r="D54">
-        <v>-0.002376695571331536</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001266954307060734</v>
+      </c>
+      <c r="E54">
+        <v>0.01829237436737561</v>
+      </c>
+      <c r="F54">
+        <v>-0.005669000732727639</v>
+      </c>
+      <c r="G54">
+        <v>-0.1068773119397306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.01707265293159807</v>
+        <v>0.07198666165010859</v>
       </c>
       <c r="C55">
-        <v>0.0200757424491867</v>
+        <v>-0.06823323354126089</v>
       </c>
       <c r="D55">
-        <v>0.1001629630174515</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005080392252959161</v>
+      </c>
+      <c r="E55">
+        <v>-0.02285748412320096</v>
+      </c>
+      <c r="F55">
+        <v>-0.06468461984907893</v>
+      </c>
+      <c r="G55">
+        <v>-0.06983974192687586</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.03218239727106697</v>
+        <v>0.1361470904187821</v>
       </c>
       <c r="C56">
-        <v>0.04144945770131708</v>
+        <v>-0.1077863303452299</v>
       </c>
       <c r="D56">
-        <v>0.1542076511495694</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01245417726032561</v>
+      </c>
+      <c r="E56">
+        <v>-0.03257270650495898</v>
+      </c>
+      <c r="F56">
+        <v>-0.08147838191282018</v>
+      </c>
+      <c r="G56">
+        <v>-0.04241039727891601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02240010216732533</v>
+        <v>0.00575913964524895</v>
       </c>
       <c r="C57">
-        <v>-0.008521994286092519</v>
+        <v>-0.006527082643100079</v>
       </c>
       <c r="D57">
-        <v>0.03213785189006081</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02285207625618203</v>
+      </c>
+      <c r="E57">
+        <v>0.0249991070772685</v>
+      </c>
+      <c r="F57">
+        <v>0.008674587973892955</v>
+      </c>
+      <c r="G57">
+        <v>-0.02397870102940982</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.02039082869015755</v>
+        <v>0.05393397306382328</v>
       </c>
       <c r="C58">
-        <v>0.02026540604441721</v>
+        <v>-0.04632997989539653</v>
       </c>
       <c r="D58">
-        <v>0.1299629808924029</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01974182195697594</v>
+      </c>
+      <c r="E58">
+        <v>0.9152850841767137</v>
+      </c>
+      <c r="F58">
+        <v>-0.2621769326251128</v>
+      </c>
+      <c r="G58">
+        <v>0.2277644257182962</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1776790853247771</v>
+        <v>0.1602348716424958</v>
       </c>
       <c r="C59">
-        <v>0.2014275357520214</v>
+        <v>0.2052263513846089</v>
       </c>
       <c r="D59">
-        <v>-0.1109439840500914</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01176826001254697</v>
+      </c>
+      <c r="E59">
+        <v>0.01843302678431882</v>
+      </c>
+      <c r="F59">
+        <v>-0.002851020581590666</v>
+      </c>
+      <c r="G59">
+        <v>-0.04099226570200784</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1522074335026997</v>
+        <v>0.2883841261581219</v>
       </c>
       <c r="C60">
-        <v>0.1431312509379825</v>
+        <v>-0.108007522285112</v>
       </c>
       <c r="D60">
-        <v>0.1443662459520149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01180746198887219</v>
+      </c>
+      <c r="E60">
+        <v>-0.00288397858829995</v>
+      </c>
+      <c r="F60">
+        <v>0.3394520969272029</v>
+      </c>
+      <c r="G60">
+        <v>0.1624664059711625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002359243192842391</v>
+        <v>0.03897698603748863</v>
       </c>
       <c r="C61">
-        <v>-0.002535300637547567</v>
+        <v>-0.06592041105280651</v>
       </c>
       <c r="D61">
-        <v>0.07427821204929476</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005564265551142277</v>
+      </c>
+      <c r="E61">
+        <v>0.0235264864746786</v>
+      </c>
+      <c r="F61">
+        <v>0.01352449227249774</v>
+      </c>
+      <c r="G61">
+        <v>-0.09611940472421607</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.006360883976401609</v>
+        <v>0.01609867170177441</v>
       </c>
       <c r="C63">
-        <v>-0.004232212705278355</v>
+        <v>-0.03086309509631643</v>
       </c>
       <c r="D63">
-        <v>0.02507499945972919</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008429224565788559</v>
+      </c>
+      <c r="E63">
+        <v>0.003214589361374933</v>
+      </c>
+      <c r="F63">
+        <v>-0.01740931637390705</v>
+      </c>
+      <c r="G63">
+        <v>-0.09194677163991995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02397256328107893</v>
+        <v>0.04905149040828863</v>
       </c>
       <c r="C64">
-        <v>0.01885195675736343</v>
+        <v>-0.04647893896385596</v>
       </c>
       <c r="D64">
-        <v>0.06106093297511019</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006598656824934156</v>
+      </c>
+      <c r="E64">
+        <v>0.009099436862916239</v>
+      </c>
+      <c r="F64">
+        <v>0.008882587721449483</v>
+      </c>
+      <c r="G64">
+        <v>-0.1037000297240676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02907913100404167</v>
+        <v>0.07556867872972556</v>
       </c>
       <c r="C65">
-        <v>0.006339078346716487</v>
+        <v>-0.05799449653661889</v>
       </c>
       <c r="D65">
-        <v>0.116498062678724</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01657530234209737</v>
+      </c>
+      <c r="E65">
+        <v>0.03860353175036946</v>
+      </c>
+      <c r="F65">
+        <v>0.02816836425665188</v>
+      </c>
+      <c r="G65">
+        <v>-0.04267939466727354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005376090931340611</v>
+        <v>0.05104823327683886</v>
       </c>
       <c r="C66">
-        <v>-0.019679595100537</v>
+        <v>-0.1070310046406537</v>
       </c>
       <c r="D66">
-        <v>0.1346125715934156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01170156462187259</v>
+      </c>
+      <c r="E66">
+        <v>0.04015793009871445</v>
+      </c>
+      <c r="F66">
+        <v>0.03400707362412779</v>
+      </c>
+      <c r="G66">
+        <v>-0.1044105345525132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0266120337742266</v>
+        <v>0.05404039299312464</v>
       </c>
       <c r="C67">
-        <v>0.03630048830386818</v>
+        <v>-0.03389953551858482</v>
       </c>
       <c r="D67">
-        <v>0.05863740411311656</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005908154865808894</v>
+      </c>
+      <c r="E67">
+        <v>-0.001725489836377794</v>
+      </c>
+      <c r="F67">
+        <v>-0.01754076511329398</v>
+      </c>
+      <c r="G67">
+        <v>-0.07484537955109416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1861088693771893</v>
+        <v>0.1556243766125542</v>
       </c>
       <c r="C68">
-        <v>0.1826419919223287</v>
+        <v>0.2687829843038608</v>
       </c>
       <c r="D68">
-        <v>-0.1626069662175016</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0054152913137109</v>
+      </c>
+      <c r="E68">
+        <v>0.01249237602067187</v>
+      </c>
+      <c r="F68">
+        <v>-0.03747217530488911</v>
+      </c>
+      <c r="G68">
+        <v>-0.02961755358378136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.02280298570351394</v>
+        <v>0.08285185469079381</v>
       </c>
       <c r="C69">
-        <v>0.03414427614721724</v>
+        <v>-0.0701662933405886</v>
       </c>
       <c r="D69">
-        <v>0.0765084746701841</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008946038721207255</v>
+      </c>
+      <c r="E69">
+        <v>-0.02091694930448237</v>
+      </c>
+      <c r="F69">
+        <v>-0.03828413130348651</v>
+      </c>
+      <c r="G69">
+        <v>-0.1019294964010048</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1507405320706741</v>
+        <v>0.141270399570666</v>
       </c>
       <c r="C71">
-        <v>0.1575218260737724</v>
+        <v>0.2303692845544832</v>
       </c>
       <c r="D71">
-        <v>-0.1144806861153341</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003150640335985467</v>
+      </c>
+      <c r="E71">
+        <v>0.03292988208514596</v>
+      </c>
+      <c r="F71">
+        <v>-0.02550902474390955</v>
+      </c>
+      <c r="G71">
+        <v>-0.071677414989745</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0101035892659637</v>
+        <v>0.08531038678244357</v>
       </c>
       <c r="C72">
-        <v>0.01938865110135274</v>
+        <v>-0.06776620017779943</v>
       </c>
       <c r="D72">
-        <v>0.1059700048520424</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008212889298006627</v>
+      </c>
+      <c r="E72">
+        <v>-0.007171176380663589</v>
+      </c>
+      <c r="F72">
+        <v>0.03613936455291086</v>
+      </c>
+      <c r="G72">
+        <v>-0.08816028782616571</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1866700847015911</v>
+        <v>0.3769330496590449</v>
       </c>
       <c r="C73">
-        <v>0.1674381307898764</v>
+        <v>-0.1166234125766009</v>
       </c>
       <c r="D73">
-        <v>0.271634754572995</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02068834825941584</v>
+      </c>
+      <c r="E73">
+        <v>0.07258834955119235</v>
+      </c>
+      <c r="F73">
+        <v>0.5828944239791426</v>
+      </c>
+      <c r="G73">
+        <v>0.2894354271973289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.03150773857372643</v>
+        <v>0.1049879550404663</v>
       </c>
       <c r="C74">
-        <v>0.04306913342637016</v>
+        <v>-0.1099106819028679</v>
       </c>
       <c r="D74">
-        <v>0.1720831272948453</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009483160029011161</v>
+      </c>
+      <c r="E74">
+        <v>-0.008067442256703448</v>
+      </c>
+      <c r="F74">
+        <v>-0.06911347629434293</v>
+      </c>
+      <c r="G74">
+        <v>-0.08175860907967808</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.08321506606995883</v>
+        <v>0.2469582403866327</v>
       </c>
       <c r="C75">
-        <v>0.1070457645916806</v>
+        <v>-0.1535595219603719</v>
       </c>
       <c r="D75">
-        <v>0.3008775191457591</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03080343275573599</v>
+      </c>
+      <c r="E75">
+        <v>-0.0675914258229625</v>
+      </c>
+      <c r="F75">
+        <v>-0.1672499101689233</v>
+      </c>
+      <c r="G75">
+        <v>0.02095809481219538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.03924231102801914</v>
+        <v>0.1186184064064191</v>
       </c>
       <c r="C76">
-        <v>0.0599043095808218</v>
+        <v>-0.109520515995525</v>
       </c>
       <c r="D76">
-        <v>0.2061447210673791</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01795741139395228</v>
+      </c>
+      <c r="E76">
+        <v>-0.02577669044497879</v>
+      </c>
+      <c r="F76">
+        <v>-0.1046345098547618</v>
+      </c>
+      <c r="G76">
+        <v>-0.06013329858650531</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01782104652778065</v>
+        <v>0.07088953056875713</v>
       </c>
       <c r="C77">
-        <v>0.004631492853490651</v>
+        <v>-0.06149948030816936</v>
       </c>
       <c r="D77">
-        <v>0.08188576303378137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01027971172162871</v>
+      </c>
+      <c r="E77">
+        <v>0.04792293645165978</v>
+      </c>
+      <c r="F77">
+        <v>0.01429495749453751</v>
+      </c>
+      <c r="G77">
+        <v>-0.06211533699037771</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.009047280968300722</v>
+        <v>0.04280840444786266</v>
       </c>
       <c r="C78">
-        <v>0.004398972998955027</v>
+        <v>-0.04952274598758398</v>
       </c>
       <c r="D78">
-        <v>0.06373735645023484</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005907817012696966</v>
+      </c>
+      <c r="E78">
+        <v>0.02848034689344824</v>
+      </c>
+      <c r="F78">
+        <v>0.03530868952415207</v>
+      </c>
+      <c r="G78">
+        <v>-0.1028267183541816</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-3.668342626253332e-05</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0004921138995801549</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-2.87874796110759e-06</v>
+      </c>
+      <c r="E79">
+        <v>0.0007596431122146548</v>
+      </c>
+      <c r="F79">
+        <v>0.000558247739067988</v>
+      </c>
+      <c r="G79">
+        <v>0.001037336638344206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03070924155168482</v>
+        <v>0.04306142904726591</v>
       </c>
       <c r="C80">
-        <v>0.01633700570954621</v>
+        <v>-0.05143919425825427</v>
       </c>
       <c r="D80">
-        <v>0.08140340547311618</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01330461033141067</v>
+      </c>
+      <c r="E80">
+        <v>0.02576128593774786</v>
+      </c>
+      <c r="F80">
+        <v>0.01086115033543303</v>
+      </c>
+      <c r="G80">
+        <v>-0.05404790206954657</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.04935577348026489</v>
+        <v>0.1368513054078429</v>
       </c>
       <c r="C81">
-        <v>0.0619098782206399</v>
+        <v>-0.09589079145071387</v>
       </c>
       <c r="D81">
-        <v>0.1644893445494226</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01474508616000072</v>
+      </c>
+      <c r="E81">
+        <v>-0.03273377851091853</v>
+      </c>
+      <c r="F81">
+        <v>-0.1254425942825611</v>
+      </c>
+      <c r="G81">
+        <v>-0.0221258385619028</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1334121634618549</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08068860747139651</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.009499990757112225</v>
+      </c>
+      <c r="E82">
+        <v>-0.09981866610983503</v>
+      </c>
+      <c r="F82">
+        <v>-0.05152981370262816</v>
+      </c>
+      <c r="G82">
+        <v>-0.06360158261697449</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0150191808341277</v>
+        <v>0.03627828104523782</v>
       </c>
       <c r="C83">
-        <v>0.0107997513845041</v>
+        <v>-0.02820485248769557</v>
       </c>
       <c r="D83">
-        <v>0.02642802226432648</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.005969049423777699</v>
+      </c>
+      <c r="E83">
+        <v>0.03014190674966202</v>
+      </c>
+      <c r="F83">
+        <v>0.02972819874149558</v>
+      </c>
+      <c r="G83">
+        <v>-0.06356398182753385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.07538137295726836</v>
+        <v>0.2117235022159025</v>
       </c>
       <c r="C85">
-        <v>0.08011490928489708</v>
+        <v>-0.1480177876077453</v>
       </c>
       <c r="D85">
-        <v>0.2746396586292228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01696359386847699</v>
+      </c>
+      <c r="E85">
+        <v>-0.101822801453585</v>
+      </c>
+      <c r="F85">
+        <v>-0.1212587308404608</v>
+      </c>
+      <c r="G85">
+        <v>0.06169294604505682</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01617219120107271</v>
+        <v>0.01442114688579499</v>
       </c>
       <c r="C86">
-        <v>0.01024862821052674</v>
+        <v>-0.02538076866780599</v>
       </c>
       <c r="D86">
-        <v>0.04268991441911407</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01148887622766429</v>
+      </c>
+      <c r="E86">
+        <v>0.05114206515569501</v>
+      </c>
+      <c r="F86">
+        <v>0.01817305578040447</v>
+      </c>
+      <c r="G86">
+        <v>-0.1914378337629526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.002351659378993167</v>
+        <v>0.02159677429802714</v>
       </c>
       <c r="C87">
-        <v>-0.01010525619435898</v>
+        <v>-0.02163891312562511</v>
       </c>
       <c r="D87">
-        <v>0.03687897071021061</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01187326505281608</v>
+      </c>
+      <c r="E87">
+        <v>0.09347780596722968</v>
+      </c>
+      <c r="F87">
+        <v>0.009227993064919671</v>
+      </c>
+      <c r="G87">
+        <v>-0.1223383304429507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.0435440421953638</v>
+        <v>0.09410933119948622</v>
       </c>
       <c r="C88">
-        <v>0.01350397658949029</v>
+        <v>-0.06837111448893382</v>
       </c>
       <c r="D88">
-        <v>0.04931119873573489</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02226700314028697</v>
+      </c>
+      <c r="E88">
+        <v>-0.003479556025156638</v>
+      </c>
+      <c r="F88">
+        <v>-0.02132299862810743</v>
+      </c>
+      <c r="G88">
+        <v>-0.1030661148470136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2763220182544368</v>
+        <v>0.2327676973538466</v>
       </c>
       <c r="C89">
-        <v>0.2845712377967803</v>
+        <v>0.36821302955064</v>
       </c>
       <c r="D89">
-        <v>-0.197838573814076</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0005953399244041193</v>
+      </c>
+      <c r="E89">
+        <v>-0.01874310533770195</v>
+      </c>
+      <c r="F89">
+        <v>-0.02663836080769088</v>
+      </c>
+      <c r="G89">
+        <v>-0.07027228511383822</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2255225374416483</v>
+        <v>0.2079954982529945</v>
       </c>
       <c r="C90">
-        <v>0.236886287899982</v>
+        <v>0.3168935339615135</v>
       </c>
       <c r="D90">
-        <v>-0.1803275327898554</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004925949453901884</v>
+      </c>
+      <c r="E90">
+        <v>0.001771025355935378</v>
+      </c>
+      <c r="F90">
+        <v>-0.04804785088624119</v>
+      </c>
+      <c r="G90">
+        <v>-0.04364793637083346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07195239666407624</v>
+        <v>0.1849761921081201</v>
       </c>
       <c r="C91">
-        <v>0.09520588261171607</v>
+        <v>-0.1425048662427414</v>
       </c>
       <c r="D91">
-        <v>0.2280023628728787</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0217240954534849</v>
+      </c>
+      <c r="E91">
+        <v>-0.0627750828469109</v>
+      </c>
+      <c r="F91">
+        <v>-0.1419935497486404</v>
+      </c>
+      <c r="G91">
+        <v>-0.0339770522982976</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1846862572057652</v>
+        <v>0.199504024669162</v>
       </c>
       <c r="C92">
-        <v>0.2377992271771271</v>
+        <v>0.2572754582326842</v>
       </c>
       <c r="D92">
-        <v>-0.08318999010024949</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03828339169586843</v>
+      </c>
+      <c r="E92">
+        <v>0.04401945520774616</v>
+      </c>
+      <c r="F92">
+        <v>-0.06025127661505937</v>
+      </c>
+      <c r="G92">
+        <v>-0.1145284228558223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2366293685821535</v>
+        <v>0.2313449275248899</v>
       </c>
       <c r="C93">
-        <v>0.2561017790268901</v>
+        <v>0.3132528080260005</v>
       </c>
       <c r="D93">
-        <v>-0.1476520711688931</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01152800802826612</v>
+      </c>
+      <c r="E93">
+        <v>0.005298514772231462</v>
+      </c>
+      <c r="F93">
+        <v>-0.04318041043460079</v>
+      </c>
+      <c r="G93">
+        <v>-0.05982216745689736</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1181436522747689</v>
+        <v>0.3187469759347617</v>
       </c>
       <c r="C94">
-        <v>0.1159828726647303</v>
+        <v>-0.179428518270177</v>
       </c>
       <c r="D94">
-        <v>0.3039775792334011</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01859277437537734</v>
+      </c>
+      <c r="E94">
+        <v>-0.2110192510825461</v>
+      </c>
+      <c r="F94">
+        <v>-0.4796255601974421</v>
+      </c>
+      <c r="G94">
+        <v>0.4162693986170204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>3.869408192095019e-05</v>
+        <v>0.1003868747646289</v>
       </c>
       <c r="C95">
-        <v>0.01075560168650594</v>
+        <v>-0.08993655871415973</v>
       </c>
       <c r="D95">
-        <v>0.121906429827061</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009519412975414629</v>
+      </c>
+      <c r="E95">
+        <v>0.08445918996671026</v>
+      </c>
+      <c r="F95">
+        <v>0.1878015023354385</v>
+      </c>
+      <c r="G95">
+        <v>-0.005863825571799946</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1020588561472603</v>
+        <v>0.1954492929517958</v>
       </c>
       <c r="C98">
-        <v>0.1295242604601383</v>
+        <v>-0.04462663445910711</v>
       </c>
       <c r="D98">
-        <v>0.1256720525552004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01360915108960265</v>
+      </c>
+      <c r="E98">
+        <v>0.06802689804529291</v>
+      </c>
+      <c r="F98">
+        <v>0.2394342541201662</v>
+      </c>
+      <c r="G98">
+        <v>0.02652560797297068</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01082283150694425</v>
+        <v>0.0087562660993159</v>
       </c>
       <c r="C101">
-        <v>0.002767403160334891</v>
+        <v>-0.02340481957361968</v>
       </c>
       <c r="D101">
-        <v>0.01893759863450282</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009099712732539412</v>
+      </c>
+      <c r="E101">
+        <v>0.004060071328970217</v>
+      </c>
+      <c r="F101">
+        <v>-0.01552750340602701</v>
+      </c>
+      <c r="G101">
+        <v>-0.0952611707940389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.04793136913941486</v>
+        <v>0.1155524783400365</v>
       </c>
       <c r="C102">
-        <v>0.04102920791507626</v>
+        <v>-0.08394388526944692</v>
       </c>
       <c r="D102">
-        <v>0.134166172151364</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0008544394033236753</v>
+      </c>
+      <c r="E102">
+        <v>-0.03536396044238593</v>
+      </c>
+      <c r="F102">
+        <v>-0.04247672840646984</v>
+      </c>
+      <c r="G102">
+        <v>-0.01135968508735692</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.7254771933225171</v>
+        <v>0.02139023959101286</v>
       </c>
       <c r="C104">
-        <v>-0.6748225432837834</v>
+        <v>0.0306579750554648</v>
       </c>
       <c r="D104">
-        <v>-0.03201249393305879</v>
+        <v>-0.9878982498155232</v>
+      </c>
+      <c r="E104">
+        <v>-0.04772122895999475</v>
+      </c>
+      <c r="F104">
+        <v>-0.03509430694812767</v>
+      </c>
+      <c r="G104">
+        <v>0.03977214118883496</v>
       </c>
     </row>
   </sheetData>
